--- a/biology/Microbiologie/Pectobacteriaceae/Pectobacteriaceae.xlsx
+++ b/biology/Microbiologie/Pectobacteriaceae/Pectobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pectobacteriaceae sont une famille de bacilles Gram négatifs de l'ordre  des Enterobacterales. Leur nom provient de Pectobacterium qui est le genre type de la famille.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est créée en 2016 lors de la réorganisation de l'ordre des Enterobacterales par M. Adeolu et al. sur la base de travaux de phylogénétique moléculaire[1]. Elle se compose de genres bactériens auparavant rattachés aux Enterobacteriaceae sur la base de critères phénotypiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est créée en 2016 lors de la réorganisation de l'ordre des Enterobacterales par M. Adeolu et al. sur la base de travaux de phylogénétique moléculaire. Elle se compose de genres bactériens auparavant rattachés aux Enterobacteriaceae sur la base de critères phénotypiques.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genres validement publiés
-Selon la LPSN  (26 octobre 2022)[2] :
+          <t>Genres validement publiés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (26 octobre 2022) :
 Acerihabitans Lee et al. 2021
 Biostraticola Verbarg et al. 2008
 Brenneria Hauben et al. 1999
@@ -553,9 +572,43 @@
 Lonsdalea Brady et al. 2012
 Musicola Hugouvieux-Cotte-Pattat et al. 2021
 Pectobacterium Waldee 1945 – genre type
-Sodalis Dale &amp; Maudlin 1999
-Genres en attente de publication valide
-Selon la LPSN  (6 novembre 2022)[3] :
+Sodalis Dale &amp; Maudlin 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pectobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pectobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (6 novembre 2022) :
 « Affinibrenneria » Bian et al. 2021
 « Bruguierivorax » Li et al. 2021
 « Prodigiosinella » Duprey et al. 2019</t>
